--- a/heatload_calc/Python/mid_data_spec.xlsx
+++ b/heatload_calc/Python/mid_data_spec.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1937110A-A4B9-496C-A702-DCF565FB9F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6AD88B-174E-4922-A8BA-ABEE927A65DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{D871B701-3D60-4786-BECA-4A50DA29336E}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="7" xr2:uid="{D871B701-3D60-4786-BECA-4A50DA29336E}"/>
   </bookViews>
   <sheets>
     <sheet name="mid_datahouse" sheetId="1" r:id="rId1"/>
+    <sheet name="mid_data_ac_demand" sheetId="2" r:id="rId2"/>
+    <sheet name="mid_data_heat_generation" sheetId="3" r:id="rId3"/>
+    <sheet name="mid_data_local_vent" sheetId="4" r:id="rId4"/>
+    <sheet name="mid_data_moisture_generation" sheetId="5" r:id="rId5"/>
+    <sheet name="mid_data_occupants" sheetId="6" r:id="rId6"/>
+    <sheet name="mid_data_q_trs_sol" sheetId="7" r:id="rId7"/>
+    <sheet name="mid_data_theta_o_sol" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
   <si>
     <t>階層</t>
     <rPh sb="0" eb="2">
@@ -674,6 +681,1099 @@
   </si>
   <si>
     <t>隣接する空間のID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phi_a0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吸熱応答係数の初項</t>
+    <rPh sb="0" eb="2">
+      <t>キュウネツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>･K/W</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phi_a1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指数項別吸熱応答係数</t>
+    <rPh sb="0" eb="2">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キュウネツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phi_t0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貫流応答係数の初項</t>
+    <rPh sb="0" eb="2">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指数項別貫流応答係数</t>
+    <rPh sb="0" eb="2">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phi_t1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公比</t>
+    <rPh sb="0" eb="2">
+      <t>コウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>室内側総合熱伝達率</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h_i</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>W/(m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・K)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>放射暖房熱量の室内側吸収比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネツリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is_solar_absorbed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>室内侵入日射吸収の有無</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>f_mrt_hum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部位の人体に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣室温度差係数（室外側相当外気温度基準）</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>オンドサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シツガイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k_inside_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:id
+2:null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:室の通し番号
+2:屋外</t>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オクガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>裏面の境界通し番号</t>
+    <rPh sb="0" eb="2">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k_inside_coef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣室温度差係数（自室温度基準）</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>オンドサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジシツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の空調モード</t>
+    <rPh sb="14" eb="16">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の空調モード</t>
+    <rPh sb="14" eb="16">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>35040行目</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の空調モード</t>
+    <rPh sb="21" eb="23">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル内容（行方向）</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目（列方向）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1列目</t>
+    <rPh sb="1" eb="3">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の空調モード</t>
+    <rPh sb="12" eb="14">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2列目</t>
+    <rPh sb="1" eb="3">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の空調モード</t>
+    <rPh sb="12" eb="14">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3列目</t>
+    <rPh sb="1" eb="3">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の空調モード</t>
+    <rPh sb="12" eb="14">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空調ON</t>
+    <rPh sb="0" eb="2">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空調OFF</t>
+    <rPh sb="0" eb="2">
+      <t>クウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の機器内部発熱</t>
+    <rPh sb="14" eb="16">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の機器内部発熱</t>
+    <rPh sb="14" eb="16">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の機器内部発熱</t>
+    <rPh sb="21" eb="23">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の機器内部発熱</t>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の機器内部発熱</t>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の機器内部発熱</t>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機器内部発熱値[W]</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハツネツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の局所換気量</t>
+    <rPh sb="14" eb="16">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の局所換気量</t>
+    <rPh sb="14" eb="16">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の局所換気量</t>
+    <rPh sb="21" eb="23">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の局所換気量</t>
+    <rPh sb="12" eb="14">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の局所換気量</t>
+    <rPh sb="12" eb="14">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の局所換気量</t>
+    <rPh sb="12" eb="14">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>局所換気量[m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/s]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の調理内部発湿</t>
+    <rPh sb="14" eb="16">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の調理内部発湿</t>
+    <rPh sb="14" eb="16">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の調理内部発湿</t>
+    <rPh sb="21" eb="23">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の調理内部発湿</t>
+    <rPh sb="12" eb="14">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の調理内部発湿</t>
+    <rPh sb="12" eb="14">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の調理内部発湿</t>
+    <rPh sb="12" eb="14">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調理内部発湿[kg/s]</t>
+    <rPh sb="0" eb="2">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の在室人員</t>
+    <rPh sb="14" eb="16">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の在室人員</t>
+    <rPh sb="14" eb="16">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の在室人員</t>
+    <rPh sb="21" eb="23">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の在室人員</t>
+    <rPh sb="12" eb="14">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の在室人員</t>
+    <rPh sb="12" eb="14">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の在室人員</t>
+    <rPh sb="12" eb="14">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在室人員[人]</t>
+    <rPh sb="0" eb="2">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の透過日射熱取得</t>
+    <rPh sb="14" eb="16">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の透過日射熱取得</t>
+    <rPh sb="14" eb="16">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の透過日射熱取得</t>
+    <rPh sb="21" eb="23">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0の透過日射熱取得</t>
+    <rPh sb="12" eb="14">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id1の透過日射熱取得</t>
+    <rPh sb="12" eb="14">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2の透過日射熱取得</t>
+    <rPh sb="12" eb="14">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透過日射熱取得[W]</t>
+    <rPh sb="0" eb="2">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:00～0:15の裏面等価温度</t>
+    <rPh sb="14" eb="16">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 0:15～0:30の裏面等価温度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 23:45～1/1 0:00の裏面等価温度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0 boundaries::id0の裏面等価温度</t>
+    <rPh sb="28" eb="30">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0 boundaries::id1の裏面等価温度</t>
+    <rPh sb="28" eb="30">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id0 boundaries::id2の裏面等価温度</t>
+    <rPh sb="28" eb="30">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外皮：裏面等価温度[℃]、内壁：0.0℃</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヘキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N列目</t>
+    <rPh sb="1" eb="3">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spaces::id2 boundaries::idNの裏面等価温度</t>
+    <rPh sb="28" eb="30">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オンド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -712,7 +1812,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +1822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,8 +1912,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,24 +2244,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018312A3-896B-4EAA-A8F2-6846300EEEA7}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="2.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="35.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="23.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="3"/>
@@ -1432,7 +2553,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -1496,7 +2617,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1857,37 +2978,37 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
+    <row r="23" spans="1:14" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="I23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="M23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1947,9 +3068,1130 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
+    <row r="26" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC72980-D4FF-41DF-913C-AF69830F6468}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E423927-C6B3-4731-B3FD-F76EAEA3E68F}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD9FB3-AA21-41DB-8C9E-F7E01EA574D0}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B20:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23AE3C3-4427-4EB2-A9E0-DDA1ED35DE97}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13275F93-FB22-4460-B896-464D415322FF}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE10635-E0BD-45F4-AA86-3348492784E8}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDA32F7-775B-468D-8A41-407DE1DE9D71}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/heatload_calc/Python/mid_data_spec.xlsx
+++ b/heatload_calc/Python/mid_data_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6AD88B-174E-4922-A8BA-ABEE927A65DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A444E9DC-FB9A-4516-ACAE-A460F2EBBBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="7" xr2:uid="{D871B701-3D60-4786-BECA-4A50DA29336E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D871B701-3D60-4786-BECA-4A50DA29336E}"/>
   </bookViews>
   <sheets>
     <sheet name="mid_datahouse" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
   <si>
     <t>階層</t>
     <rPh sb="0" eb="2">
@@ -187,52 +187,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1:main_occupant_room
-2:other_occupant_room
-3:non_occupant_room
-4:underfloor</t>
-  </si>
-  <si>
-    <t>1:主たる居室
-2:その他の居室
-3:非居室
-4:床下空間</t>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒキョシツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ユカシタ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>クウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>str</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>室タイプ</t>
-    <rPh sb="0" eb="1">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>str</t>
@@ -329,28 +284,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>放射暖房の外流放熱比率</t>
-    <rPh sb="0" eb="2">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダンボウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウネツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>beta</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -410,13 +343,6 @@
   </si>
   <si>
     <t>List[float]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:SpaceType.MAIN_HABITABLE_ROOM
-2:SpaceType.OTHER_HABITABLE_ROOM
-3:SpaceType.NON_HABITABLE_ROOM
-4:SpaceType.UNDERFLOOR</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -624,25 +550,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>境界タイプ</t>
-    <rPh sb="0" eb="2">
-      <t>キョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>'internal': BoundaryType.Internal
-'external_general_part': BoundaryType.ExternalGeneralPart
-'external_transparent_part': BoundaryType.ExternalTransparentPart
-'external_opaque_part': BoundaryType.ExternalOpaquePart
-'ground': BoundaryType.Ground</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ex:BoundaryType.ExternalGeneralPart</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>土壌の有無</t>
     <rPh sb="0" eb="2">
       <t>ドジョウ</t>
@@ -1003,32 +910,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>k_inside_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:id
-2:null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:室の通し番号
-2:屋外</t>
-    <rPh sb="2" eb="3">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オクガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>裏面の境界通し番号</t>
     <rPh sb="0" eb="2">
       <t>リメン</t>
@@ -1041,32 +922,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>k_inside_coef</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>隣室温度差係数（自室温度基準）</t>
-    <rPh sb="0" eb="2">
-      <t>リンシツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>オンドサ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジシツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1773,6 +1628,101 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>放射暖房の対流放熱比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウネツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配列番号と室id番号が対応している</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣室の影響</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>coef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>裏面の境界の影響を表す係数</t>
+    <rPh sb="0" eb="2">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣室がない場合はk_insideがnullとなる</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k_insideがnullでない場合に定義される</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1812,7 +1762,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1822,12 +1772,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,7 +1831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,15 +1856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1929,6 +1864,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2244,13 +2185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018312A3-896B-4EAA-A8F2-6846300EEEA7}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2334,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2412,20 +2353,20 @@
         <v>9</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -2435,7 +2376,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -2444,16 +2385,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="N6" s="6"/>
     </row>
@@ -2482,14 +2423,14 @@
         <v>13</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -2499,10 +2440,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>9</v>
@@ -2514,10 +2455,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N8" s="6"/>
     </row>
@@ -2531,10 +2472,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
@@ -2546,27 +2487,27 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>9</v>
@@ -2578,14 +2519,14 @@
         <v>13</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -2595,27 +2536,29 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2630,7 +2573,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>9</v>
@@ -2642,27 +2585,27 @@
         <v>13</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>9</v>
@@ -2674,27 +2617,27 @@
         <v>13</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>9</v>
@@ -2706,14 +2649,16 @@
         <v>13</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -2723,31 +2668,31 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2757,11 +2702,11 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
@@ -2772,13 +2717,13 @@
         <v>13</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2791,94 +2736,90 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2890,10 +2831,10 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>9</v>
@@ -2905,10 +2846,14 @@
         <v>13</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2920,10 +2865,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>9</v>
@@ -2935,16 +2880,16 @@
         <v>13</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>9</v>
@@ -2954,65 +2899,53 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="M22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>9</v>
@@ -3022,29 +2955,29 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>9</v>
@@ -3054,18 +2987,26 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
@@ -3078,10 +3019,10 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>9</v>
@@ -3093,14 +3034,14 @@
         <v>13</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>9</v>
@@ -3110,10 +3051,10 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>9</v>
@@ -3125,14 +3066,14 @@
         <v>13</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>9</v>
@@ -3142,10 +3083,10 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>9</v>
@@ -3157,10 +3098,10 @@
         <v>13</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N28" s="6"/>
     </row>
@@ -3174,10 +3115,10 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>9</v>
@@ -3189,14 +3130,14 @@
         <v>13</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>9</v>
@@ -3206,10 +3147,10 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>9</v>
@@ -3221,10 +3162,10 @@
         <v>13</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="N30" s="6"/>
     </row>
@@ -3238,59 +3179,59 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="6"/>
+      <c r="M32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -3302,10 +3243,10 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>9</v>
@@ -3317,46 +3258,46 @@
         <v>13</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>9</v>
@@ -3366,45 +3307,39 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>13</v>
@@ -3413,66 +3348,44 @@
         <v>13</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3486,7 +3399,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -3496,90 +3409,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>131</v>
+      <c r="A13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>132</v>
+      <c r="A14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3593,7 +3506,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -3603,82 +3516,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>135</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>140</v>
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3702,82 +3615,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>141</v>
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>142</v>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>143</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>144</v>
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>145</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>146</v>
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>147</v>
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3801,82 +3714,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>148</v>
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>149</v>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>150</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>151</v>
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>154</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3900,82 +3813,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>155</v>
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>156</v>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>157</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>158</v>
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>159</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>160</v>
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3999,82 +3912,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>162</v>
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>163</v>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>164</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>165</v>
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>166</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>167</v>
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>168</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4087,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDA32F7-775B-468D-8A41-407DE1DE9D71}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -4098,96 +4011,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>169</v>
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>170</v>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>171</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>172</v>
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>173</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>174</v>
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>177</v>
+      <c r="A12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>175</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/heatload_calc/Python/mid_data_spec.xlsx
+++ b/heatload_calc/Python/mid_data_spec.xlsx
@@ -8,19 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A444E9DC-FB9A-4516-ACAE-A460F2EBBBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BBDA8A-8982-40E0-A449-773C51ADEA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D871B701-3D60-4786-BECA-4A50DA29336E}"/>
   </bookViews>
   <sheets>
     <sheet name="mid_datahouse" sheetId="1" r:id="rId1"/>
-    <sheet name="mid_data_ac_demand" sheetId="2" r:id="rId2"/>
-    <sheet name="mid_data_heat_generation" sheetId="3" r:id="rId3"/>
-    <sheet name="mid_data_local_vent" sheetId="4" r:id="rId4"/>
-    <sheet name="mid_data_moisture_generation" sheetId="5" r:id="rId5"/>
-    <sheet name="mid_data_occupants" sheetId="6" r:id="rId6"/>
-    <sheet name="mid_data_q_trs_sol" sheetId="7" r:id="rId7"/>
-    <sheet name="mid_data_theta_o_sol" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
   <si>
     <t>階層</t>
     <rPh sb="0" eb="2">
@@ -922,712 +915,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1行目</t>
-    <rPh sb="1" eb="3">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2行目</t>
-    <rPh sb="1" eb="3">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の空調モード</t>
-    <rPh sb="14" eb="16">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の空調モード</t>
-    <rPh sb="14" eb="16">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・・・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>35040行目</t>
-    <rPh sb="5" eb="7">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の空調モード</t>
-    <rPh sb="21" eb="23">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル内容（行方向）</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目（列方向）</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1列目</t>
-    <rPh sb="1" eb="3">
-      <t>レツメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の空調モード</t>
-    <rPh sb="12" eb="14">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2列目</t>
-    <rPh sb="1" eb="3">
-      <t>レツメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の空調モード</t>
-    <rPh sb="12" eb="14">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3列目</t>
-    <rPh sb="1" eb="3">
-      <t>レツメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の空調モード</t>
-    <rPh sb="12" eb="14">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>空調ON</t>
-    <rPh sb="0" eb="2">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>空調OFF</t>
-    <rPh sb="0" eb="2">
-      <t>クウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の機器内部発熱</t>
-    <rPh sb="14" eb="16">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の機器内部発熱</t>
-    <rPh sb="14" eb="16">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の機器内部発熱</t>
-    <rPh sb="21" eb="23">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の機器内部発熱</t>
-    <rPh sb="12" eb="14">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の機器内部発熱</t>
-    <rPh sb="12" eb="14">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の機器内部発熱</t>
-    <rPh sb="12" eb="14">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xxxx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機器内部発熱値[W]</t>
-    <rPh sb="0" eb="2">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハツネツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の局所換気量</t>
-    <rPh sb="14" eb="16">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の局所換気量</t>
-    <rPh sb="14" eb="16">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の局所換気量</t>
-    <rPh sb="21" eb="23">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の局所換気量</t>
-    <rPh sb="12" eb="14">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の局所換気量</t>
-    <rPh sb="12" eb="14">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の局所換気量</t>
-    <rPh sb="12" eb="14">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>局所換気量[m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/s]</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キョクショ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カンキリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の調理内部発湿</t>
-    <rPh sb="14" eb="16">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の調理内部発湿</t>
-    <rPh sb="14" eb="16">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の調理内部発湿</t>
-    <rPh sb="21" eb="23">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の調理内部発湿</t>
-    <rPh sb="12" eb="14">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の調理内部発湿</t>
-    <rPh sb="12" eb="14">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の調理内部発湿</t>
-    <rPh sb="12" eb="14">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>調理内部発湿[kg/s]</t>
-    <rPh sb="0" eb="2">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の在室人員</t>
-    <rPh sb="14" eb="16">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の在室人員</t>
-    <rPh sb="14" eb="16">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の在室人員</t>
-    <rPh sb="21" eb="23">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の在室人員</t>
-    <rPh sb="12" eb="14">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の在室人員</t>
-    <rPh sb="12" eb="14">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の在室人員</t>
-    <rPh sb="12" eb="14">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>在室人員[人]</t>
-    <rPh sb="0" eb="2">
-      <t>ザイシツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンイン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の透過日射熱取得</t>
-    <rPh sb="14" eb="16">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の透過日射熱取得</t>
-    <rPh sb="14" eb="16">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の透過日射熱取得</t>
-    <rPh sb="21" eb="23">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0の透過日射熱取得</t>
-    <rPh sb="12" eb="14">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id1の透過日射熱取得</t>
-    <rPh sb="12" eb="14">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2の透過日射熱取得</t>
-    <rPh sb="12" eb="14">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>透過日射熱取得[W]</t>
-    <rPh sb="0" eb="2">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:00～0:15の裏面等価温度</t>
-    <rPh sb="14" eb="16">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/1 0:15～0:30の裏面等価温度</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12/31 23:45～1/1 0:00の裏面等価温度</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0 boundaries::id0の裏面等価温度</t>
-    <rPh sb="28" eb="30">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0 boundaries::id1の裏面等価温度</t>
-    <rPh sb="28" eb="30">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id0 boundaries::id2の裏面等価温度</t>
-    <rPh sb="28" eb="30">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外皮：裏面等価温度[℃]、内壁：0.0℃</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイヘキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N列目</t>
-    <rPh sb="1" eb="3">
-      <t>レツメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>spaces::id2 boundaries::idNの裏面等価温度</t>
-    <rPh sb="28" eb="30">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オンド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1831,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,15 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2440,7 +1718,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>28</v>
@@ -2557,7 +1835,7 @@
         <v>36</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
@@ -3201,37 +2479,37 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
+    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="11" t="s">
+      <c r="I32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="11"/>
+      <c r="M32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -3307,10 +2585,10 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>9</v>
@@ -3320,7 +2598,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3339,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>13</v>
@@ -3365,13 +2643,13 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>13</v>
@@ -3392,719 +2670,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC72980-D4FF-41DF-913C-AF69830F6468}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E423927-C6B3-4731-B3FD-F76EAEA3E68F}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD9FB3-AA21-41DB-8C9E-F7E01EA574D0}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B20:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23AE3C3-4427-4EB2-A9E0-DDA1ED35DE97}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13275F93-FB22-4460-B896-464D415322FF}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE10635-E0BD-45F4-AA86-3348492784E8}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDA32F7-775B-468D-8A41-407DE1DE9D71}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>